--- a/lab26/ФИСТ2024_ЛР26_Время_работы_разных_реализаций_Словаря.xlsx
+++ b/lab26/ФИСТ2024_ЛР26_Время_работы_разных_реализаций_Словаря.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="СВОДНАЯ" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Хэш 3" sheetId="15" r:id="rId9"/>
     <sheet name="Хэш 4" sheetId="16" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="59">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -40,9 +40,6 @@
     <t>Группа</t>
   </si>
   <si>
-    <t>Пибд-11</t>
-  </si>
-  <si>
     <t>Сложности</t>
   </si>
   <si>
@@ -55,33 +52,18 @@
     <t>Фактические трудозатраты</t>
   </si>
   <si>
-    <t>75 минут</t>
-  </si>
-  <si>
-    <t>Иванов Иван Иванович</t>
-  </si>
-  <si>
     <t>Характеристики компьтера</t>
   </si>
   <si>
-    <t>Intel(R) Core(TM) i7-10510U CPU @ 1.80GHz   2.30 GHz</t>
-  </si>
-  <si>
     <t>Процессор</t>
   </si>
   <si>
     <t>Оперативная память</t>
   </si>
   <si>
-    <t>16,0 ГБ</t>
-  </si>
-  <si>
     <t>Диск</t>
   </si>
   <si>
-    <t>SSD 512 GB</t>
-  </si>
-  <si>
     <t xml:space="preserve">ФИО </t>
   </si>
   <si>
@@ -91,9 +73,6 @@
     <t>Скорость чтения/записи</t>
   </si>
   <si>
-    <t>1500 МБ/с / 1000 МБ/с</t>
-  </si>
-  <si>
     <t>Тип, емкость</t>
   </si>
   <si>
@@ -140,6 +119,87 @@
   </si>
   <si>
     <t>не проверяем</t>
+  </si>
+  <si>
+    <t>1.522</t>
+  </si>
+  <si>
+    <t>1.536</t>
+  </si>
+  <si>
+    <t>1.513</t>
+  </si>
+  <si>
+    <t>2.018</t>
+  </si>
+  <si>
+    <t>2.036</t>
+  </si>
+  <si>
+    <t>1.997</t>
+  </si>
+  <si>
+    <t>9.676</t>
+  </si>
+  <si>
+    <t>49.700</t>
+  </si>
+  <si>
+    <t>24.224</t>
+  </si>
+  <si>
+    <t>36.668</t>
+  </si>
+  <si>
+    <t>110.049</t>
+  </si>
+  <si>
+    <t>85.611</t>
+  </si>
+  <si>
+    <t>10.581</t>
+  </si>
+  <si>
+    <t>10.590</t>
+  </si>
+  <si>
+    <t>10.632</t>
+  </si>
+  <si>
+    <t>52.904</t>
+  </si>
+  <si>
+    <t>53.109</t>
+  </si>
+  <si>
+    <t>52.760</t>
+  </si>
+  <si>
+    <t>Пибд-14</t>
+  </si>
+  <si>
+    <t>Разин Константин Владимирович</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 5600 4650 MHz singlecore | 4450 MHz multicore</t>
+  </si>
+  <si>
+    <t>16,0 ГБ 3600 MT/s</t>
+  </si>
+  <si>
+    <t>642 singlecore 4861 multicore</t>
+  </si>
+  <si>
+    <t>WDC  WDS500G2B0A-00SM50 500,1 GB</t>
+  </si>
+  <si>
+    <t>500 МБ/с</t>
+  </si>
+  <si>
+    <t>ОВЕРДОФИГА</t>
+  </si>
+  <si>
+    <t>CPU-Z</t>
   </si>
 </sst>
 </file>
@@ -519,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C26"/>
+  <dimension ref="B1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -534,7 +594,7 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -542,93 +602,101 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2">
-        <v>45640</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45632</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -656,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -704,14 +772,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
-    <col min="2" max="15" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" customWidth="1"/>
+    <col min="12" max="15" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24.45" customHeight="1">
@@ -719,127 +791,163 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="M3" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="M4" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +960,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -868,40 +976,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -982,40 +1090,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1079,7 +1187,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1095,40 +1203,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1208,40 +1316,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1305,7 +1413,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1321,40 +1429,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1418,7 +1526,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1432,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1481,7 +1589,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1495,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/lab26/ФИСТ2024_ЛР26_Время_работы_разных_реализаций_Словаря.xlsx
+++ b/lab26/ФИСТ2024_ЛР26_Время_работы_разных_реализаций_Словаря.xlsx
@@ -11,7 +11,7 @@
     <sheet name="На файле -без загрузки в память" sheetId="13" r:id="rId2"/>
     <sheet name="Массив" sheetId="2" r:id="rId3"/>
     <sheet name="Отсортированный массив" sheetId="11" r:id="rId4"/>
-    <sheet name="Список" sheetId="3" r:id="rId5"/>
+    <sheet name="Связанный список" sheetId="3" r:id="rId5"/>
     <sheet name="Дерево" sheetId="12" r:id="rId6"/>
     <sheet name="Хэш" sheetId="6" r:id="rId7"/>
     <sheet name="Хэш 2" sheetId="14" r:id="rId8"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="277">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -184,9 +184,6 @@
     <t>AMD Ryzen 5 5600 4650 MHz singlecore | 4450 MHz multicore</t>
   </si>
   <si>
-    <t>16,0 ГБ 3600 MT/s</t>
-  </si>
-  <si>
     <t>642 singlecore 4861 multicore</t>
   </si>
   <si>
@@ -200,6 +197,663 @@
   </si>
   <si>
     <t>CPU-Z</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>0.187</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>0.438</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.242</t>
+  </si>
+  <si>
+    <t>0.264</t>
+  </si>
+  <si>
+    <t>0.756</t>
+  </si>
+  <si>
+    <t>0.938</t>
+  </si>
+  <si>
+    <t>1.148</t>
+  </si>
+  <si>
+    <t>2.645</t>
+  </si>
+  <si>
+    <t>0.262</t>
+  </si>
+  <si>
+    <t>1.005</t>
+  </si>
+  <si>
+    <t>2.377</t>
+  </si>
+  <si>
+    <t>1.216</t>
+  </si>
+  <si>
+    <t>1.317</t>
+  </si>
+  <si>
+    <t>3.784</t>
+  </si>
+  <si>
+    <t>4.693</t>
+  </si>
+  <si>
+    <t>1.212</t>
+  </si>
+  <si>
+    <t>1.315</t>
+  </si>
+  <si>
+    <t>5.764</t>
+  </si>
+  <si>
+    <t>13.252</t>
+  </si>
+  <si>
+    <t>1.208</t>
+  </si>
+  <si>
+    <t>1.313</t>
+  </si>
+  <si>
+    <t>5.030</t>
+  </si>
+  <si>
+    <t>11.932</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>0.294</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.250</t>
+  </si>
+  <si>
+    <t>0.292</t>
+  </si>
+  <si>
+    <t>0.308</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>0.256</t>
+  </si>
+  <si>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>1.253</t>
+  </si>
+  <si>
+    <t>1.279</t>
+  </si>
+  <si>
+    <t>1.473</t>
+  </si>
+  <si>
+    <t>1.538</t>
+  </si>
+  <si>
+    <t>1.249</t>
+  </si>
+  <si>
+    <t>1.278</t>
+  </si>
+  <si>
+    <t>1.466</t>
+  </si>
+  <si>
+    <t>1.532</t>
+  </si>
+  <si>
+    <t>1.472</t>
+  </si>
+  <si>
+    <t>1.542</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>1.368</t>
+  </si>
+  <si>
+    <t>0.164</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t>0.890</t>
+  </si>
+  <si>
+    <t>0.249</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>2.292</t>
+  </si>
+  <si>
+    <t>9.290</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.268</t>
+  </si>
+  <si>
+    <t>1.357</t>
+  </si>
+  <si>
+    <t>4.591</t>
+  </si>
+  <si>
+    <t>1.476</t>
+  </si>
+  <si>
+    <t>5.348</t>
+  </si>
+  <si>
+    <t>1.258</t>
+  </si>
+  <si>
+    <t>1.341</t>
+  </si>
+  <si>
+    <t>11.249</t>
+  </si>
+  <si>
+    <t>46.812</t>
+  </si>
+  <si>
+    <t>1.233</t>
+  </si>
+  <si>
+    <t>1.333</t>
+  </si>
+  <si>
+    <t>6.996</t>
+  </si>
+  <si>
+    <t>22.818</t>
+  </si>
+  <si>
+    <t>1.229</t>
+  </si>
+  <si>
+    <t>1.342</t>
+  </si>
+  <si>
+    <t>7.811</t>
+  </si>
+  <si>
+    <t>26.456</t>
+  </si>
+  <si>
+    <t>0.040</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.046</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>0.690</t>
+  </si>
+  <si>
+    <t>2.448</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>1.923</t>
+  </si>
+  <si>
+    <t>0.260</t>
+  </si>
+  <si>
+    <t>0.310</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>4.360</t>
+  </si>
+  <si>
+    <t>16.647</t>
+  </si>
+  <si>
+    <t>0.254</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>3.609</t>
+  </si>
+  <si>
+    <t>13.887</t>
+  </si>
+  <si>
+    <t>1.262</t>
+  </si>
+  <si>
+    <t>1.298</t>
+  </si>
+  <si>
+    <t>1.489</t>
+  </si>
+  <si>
+    <t>1.551</t>
+  </si>
+  <si>
+    <t>1.283</t>
+  </si>
+  <si>
+    <t>1.427</t>
+  </si>
+  <si>
+    <t>21.986</t>
+  </si>
+  <si>
+    <t>83.006</t>
+  </si>
+  <si>
+    <t>1.271</t>
+  </si>
+  <si>
+    <t>1.412</t>
+  </si>
+  <si>
+    <t>18.014</t>
+  </si>
+  <si>
+    <t>69.346</t>
+  </si>
+  <si>
+    <t>Хэш из презентации/исходников</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>0.241</t>
+  </si>
+  <si>
+    <t>0.239</t>
+  </si>
+  <si>
+    <t>0.270</t>
+  </si>
+  <si>
+    <t>0.282</t>
+  </si>
+  <si>
+    <t>0.234</t>
+  </si>
+  <si>
+    <t>0.238</t>
+  </si>
+  <si>
+    <t>0.236</t>
+  </si>
+  <si>
+    <t>0.240</t>
+  </si>
+  <si>
+    <t>1.171</t>
+  </si>
+  <si>
+    <t>1.191</t>
+  </si>
+  <si>
+    <t>1.351</t>
+  </si>
+  <si>
+    <t>1.416</t>
+  </si>
+  <si>
+    <t>1.198</t>
+  </si>
+  <si>
+    <t>1.347</t>
+  </si>
+  <si>
+    <t>1.409</t>
+  </si>
+  <si>
+    <t>1.192</t>
+  </si>
+  <si>
+    <t>1.349</t>
+  </si>
+  <si>
+    <t>1.410</t>
+  </si>
+  <si>
+    <t>#define MAX_HASH 132</t>
+  </si>
+  <si>
+    <t>0.058</t>
+  </si>
+  <si>
+    <t>0.049</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>0.303</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>0.295</t>
+  </si>
+  <si>
+    <t>0.347</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>1.239</t>
+  </si>
+  <si>
+    <t>1.517</t>
+  </si>
+  <si>
+    <t>2.029</t>
+  </si>
+  <si>
+    <t>1.219</t>
+  </si>
+  <si>
+    <t>1.244</t>
+  </si>
+  <si>
+    <t>1.481</t>
+  </si>
+  <si>
+    <t>1.736</t>
+  </si>
+  <si>
+    <t>1.217</t>
+  </si>
+  <si>
+    <t>1.247</t>
+  </si>
+  <si>
+    <t>1.491</t>
+  </si>
+  <si>
+    <t>1.780</t>
+  </si>
+  <si>
+    <t>Bob Jenkins lookup2.c</t>
+  </si>
+  <si>
+    <t>#define MAX_HASH 16384</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>0.285</t>
+  </si>
+  <si>
+    <t>0.246</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>1.414</t>
+  </si>
+  <si>
+    <t>1.263</t>
+  </si>
+  <si>
+    <t>1.477</t>
+  </si>
+  <si>
+    <t>1.237</t>
+  </si>
+  <si>
+    <t>1.257</t>
+  </si>
+  <si>
+    <t>1.407</t>
+  </si>
+  <si>
+    <t>FNV-1A 32bit hash</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>0.277</t>
+  </si>
+  <si>
+    <t>0.288</t>
+  </si>
+  <si>
+    <t>1.194</t>
+  </si>
+  <si>
+    <t>1.373</t>
+  </si>
+  <si>
+    <t>1.442</t>
+  </si>
+  <si>
+    <t>1.218</t>
+  </si>
+  <si>
+    <t>1.372</t>
+  </si>
+  <si>
+    <t>1.435</t>
+  </si>
+  <si>
+    <t>1.447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бинарный поиск Власенко </t>
+  </si>
+  <si>
+    <t>bsearch из stdlib.h</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>1.223</t>
+  </si>
+  <si>
+    <t>1.260</t>
+  </si>
+  <si>
+    <t>1.275</t>
+  </si>
+  <si>
+    <t>1.221</t>
+  </si>
+  <si>
+    <t>1.267</t>
+  </si>
+  <si>
+    <t>1.276</t>
+  </si>
+  <si>
+    <t>1.225</t>
+  </si>
+  <si>
+    <t>1.234</t>
+  </si>
+  <si>
+    <t>1.280</t>
+  </si>
+  <si>
+    <t>bsearch по отсортированному массиву оказался самым быстрым</t>
+  </si>
+  <si>
+    <t>бинарное дерево оказалось очень медленным</t>
+  </si>
+  <si>
+    <t>было весело искать хэш-функции из 90-х и переписывать их код</t>
+  </si>
+  <si>
+    <t>на опыте 25 лабы я сразу сделал автотест всей таблицы с её печатью</t>
+  </si>
+  <si>
+    <t>тест №2</t>
+  </si>
+  <si>
+    <t>0.621</t>
+  </si>
+  <si>
+    <t>2.379</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>1.852</t>
+  </si>
+  <si>
+    <t>0.257</t>
+  </si>
+  <si>
+    <t>0.280</t>
+  </si>
+  <si>
+    <t>4.251</t>
+  </si>
+  <si>
+    <t>16.122</t>
+  </si>
+  <si>
+    <t>3.483</t>
+  </si>
+  <si>
+    <t>13.562</t>
+  </si>
+  <si>
+    <t>1.287</t>
+  </si>
+  <si>
+    <t>1.474</t>
+  </si>
+  <si>
+    <t>1.548</t>
+  </si>
+  <si>
+    <t>1.398</t>
+  </si>
+  <si>
+    <t>21.224</t>
+  </si>
+  <si>
+    <t>80.567</t>
+  </si>
+  <si>
+    <t>1.377</t>
+  </si>
+  <si>
+    <t>17.570</t>
+  </si>
+  <si>
+    <t>67.928</t>
+  </si>
+  <si>
+    <t>32 ГБ 3600 MT/s 2  двухранковых планки</t>
+  </si>
+  <si>
+    <t>бинарное дерево переполнило стек из за обширной рекурсии</t>
+  </si>
+  <si>
+    <t>при использовании разных хешей нет особой разницы во времени: следовательно упор во что то другое (озу или запись на диск)</t>
   </si>
 </sst>
 </file>
@@ -589,7 +1243,7 @@
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="3" max="3" width="100.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -631,15 +1285,15 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -652,7 +1306,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -660,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -681,20 +1335,50 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="20" spans="2:3">
+      <c r="C20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
@@ -707,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -719,7 +1403,7 @@
     <col min="2" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.45" customHeight="1">
+    <row r="1" spans="1:15" ht="24.45" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -735,33 +1419,163 @@
       <c r="E1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>215</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -960,7 +1774,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1016,52 +1830,124 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1071,10 +1957,359 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="34.88671875" customWidth="1"/>
+    <col min="2" max="5" width="12.77734375" customWidth="1"/>
+    <col min="7" max="10" width="12.77734375" customWidth="1"/>
+    <col min="12" max="15" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="24.45" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1130,64 +2365,136 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1243,165 +2550,241 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
-    <col min="2" max="5" width="12.77734375" customWidth="1"/>
-    <col min="7" max="10" width="12.77734375" customWidth="1"/>
-    <col min="12" max="15" width="12.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="24.45" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J9" t="s">
+        <v>256</v>
+      </c>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9" t="s">
+        <v>257</v>
+      </c>
+      <c r="O9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s">
+        <v>260</v>
+      </c>
+      <c r="I10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J10" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N10" t="s">
+        <v>263</v>
+      </c>
+      <c r="O10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" t="s">
+        <v>268</v>
+      </c>
+      <c r="I11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J11" t="s">
+        <v>270</v>
+      </c>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="s">
+        <v>271</v>
+      </c>
+      <c r="N11" t="s">
+        <v>272</v>
+      </c>
+      <c r="O11" t="s">
+        <v>273</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1410,18 +2793,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
-    <col min="2" max="5" width="12.77734375" customWidth="1"/>
-    <col min="7" max="10" width="12.77734375" customWidth="1"/>
-    <col min="12" max="15" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="15" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24.45" customHeight="1">
@@ -1469,52 +2850,129 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1523,19 +2981,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.45" customHeight="1">
+    <row r="1" spans="1:15" ht="24.45" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1551,33 +3009,163 @@
       <c r="E1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1586,19 +3174,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.45" customHeight="1">
+    <row r="1" spans="1:15" ht="24.45" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1614,33 +3202,163 @@
       <c r="E1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>215</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab26/ФИСТ2024_ЛР26_Время_работы_разных_реализаций_Словаря.xlsx
+++ b/lab26/ФИСТ2024_ЛР26_Время_работы_разных_реализаций_Словаря.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="СВОДНАЯ" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="329">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -854,6 +854,162 @@
   </si>
   <si>
     <t>при использовании разных хешей нет особой разницы во времени: следовательно упор во что то другое (озу или запись на диск)</t>
+  </si>
+  <si>
+    <t>0.279</t>
+  </si>
+  <si>
+    <t>0.291</t>
+  </si>
+  <si>
+    <t>1.463</t>
+  </si>
+  <si>
+    <t>1.246</t>
+  </si>
+  <si>
+    <t>0.300</t>
+  </si>
+  <si>
+    <t>0.306</t>
+  </si>
+  <si>
+    <t>1.370</t>
+  </si>
+  <si>
+    <t>1.310</t>
+  </si>
+  <si>
+    <t>1.564</t>
+  </si>
+  <si>
+    <t>1.319</t>
+  </si>
+  <si>
+    <t>1.524</t>
+  </si>
+  <si>
+    <t>1.563</t>
+  </si>
+  <si>
+    <t>1.299</t>
+  </si>
+  <si>
+    <t>1.475</t>
+  </si>
+  <si>
+    <t>1.539</t>
+  </si>
+  <si>
+    <t>1.565</t>
+  </si>
+  <si>
+    <t>1.302</t>
+  </si>
+  <si>
+    <t>1.537</t>
+  </si>
+  <si>
+    <t>0.232</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>1.166</t>
+  </si>
+  <si>
+    <t>1.178</t>
+  </si>
+  <si>
+    <t>1.193</t>
+  </si>
+  <si>
+    <t>1.213</t>
+  </si>
+  <si>
+    <t>1.174</t>
+  </si>
+  <si>
+    <t>1.207</t>
+  </si>
+  <si>
+    <t>1.214</t>
+  </si>
+  <si>
+    <t>1.169</t>
+  </si>
+  <si>
+    <t>1.205</t>
+  </si>
+  <si>
+    <t>1.215</t>
+  </si>
+  <si>
+    <t>1.195</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.272</t>
+  </si>
+  <si>
+    <t>0.276</t>
+  </si>
+  <si>
+    <t>0.318</t>
+  </si>
+  <si>
+    <t>0.273</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>1.365</t>
+  </si>
+  <si>
+    <t>1.378</t>
+  </si>
+  <si>
+    <t>1.611</t>
+  </si>
+  <si>
+    <t>1.384</t>
+  </si>
+  <si>
+    <t>1.549</t>
+  </si>
+  <si>
+    <t>1.597</t>
+  </si>
+  <si>
+    <t>1.358</t>
+  </si>
+  <si>
+    <t>1.383</t>
+  </si>
+  <si>
+    <t>1.599</t>
+  </si>
+  <si>
+    <t>1.399</t>
+  </si>
+  <si>
+    <t>1.471</t>
+  </si>
+  <si>
+    <t>1.238</t>
+  </si>
+  <si>
+    <t>1.252</t>
+  </si>
+  <si>
+    <t>1.405</t>
+  </si>
+  <si>
+    <t>1.226</t>
   </si>
 </sst>
 </file>
@@ -1235,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1391,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1403,7 +1559,7 @@
     <col min="2" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.45" customHeight="1">
+    <row r="1" spans="1:20" ht="24.45" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1485,7 +1641,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1526,7 +1682,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:20">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1567,14 +1723,274 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>216</v>
+      </c>
+      <c r="R6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" t="s">
+        <v>142</v>
+      </c>
+      <c r="T6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>215</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>260</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" t="s">
+        <v>260</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>282</v>
+      </c>
+      <c r="R7" t="s">
+        <v>95</v>
+      </c>
+      <c r="S7" t="s">
+        <v>277</v>
+      </c>
+      <c r="T7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H8" t="s">
+        <v>286</v>
+      </c>
+      <c r="I8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" t="s">
+        <v>287</v>
+      </c>
+      <c r="L8" t="s">
+        <v>288</v>
+      </c>
+      <c r="M8" t="s">
+        <v>289</v>
+      </c>
+      <c r="N8" t="s">
+        <v>290</v>
+      </c>
+      <c r="O8" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>292</v>
+      </c>
+      <c r="R8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S8" t="s">
+        <v>107</v>
+      </c>
+      <c r="T8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10" t="s">
+        <v>141</v>
+      </c>
+      <c r="O10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="B11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" t="s">
+        <v>312</v>
+      </c>
+      <c r="H11" t="s">
+        <v>310</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>311</v>
+      </c>
+      <c r="L11" t="s">
+        <v>312</v>
+      </c>
+      <c r="M11" t="s">
+        <v>310</v>
+      </c>
+      <c r="N11" t="s">
+        <v>149</v>
+      </c>
+      <c r="O11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="B12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" t="s">
+        <v>283</v>
+      </c>
+      <c r="H12" t="s">
+        <v>317</v>
+      </c>
+      <c r="I12" t="s">
+        <v>318</v>
+      </c>
+      <c r="J12" t="s">
+        <v>319</v>
+      </c>
+      <c r="L12" t="s">
+        <v>320</v>
+      </c>
+      <c r="M12" t="s">
+        <v>321</v>
+      </c>
+      <c r="N12" t="s">
+        <v>288</v>
+      </c>
+      <c r="O12" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -1957,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1971,7 +2387,7 @@
     <col min="12" max="15" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.45" customHeight="1">
+    <row r="1" spans="1:20" ht="24.45" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>238</v>
       </c>
@@ -2012,7 +2428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2053,7 +2469,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2094,7 +2510,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:20">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,7 +2551,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -2176,7 +2592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:20">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -2217,7 +2633,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:20">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -2258,7 +2674,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:20">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2297,6 +2713,156 @@
       </c>
       <c r="O12" s="3" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R15" t="s">
+        <v>89</v>
+      </c>
+      <c r="S15" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="B16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" t="s">
+        <v>296</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" t="s">
+        <v>296</v>
+      </c>
+      <c r="S16" t="s">
+        <v>178</v>
+      </c>
+      <c r="T16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" t="s">
+        <v>299</v>
+      </c>
+      <c r="E17" t="s">
+        <v>300</v>
+      </c>
+      <c r="G17" t="s">
+        <v>234</v>
+      </c>
+      <c r="H17" t="s">
+        <v>301</v>
+      </c>
+      <c r="I17" t="s">
+        <v>299</v>
+      </c>
+      <c r="J17" t="s">
+        <v>302</v>
+      </c>
+      <c r="L17" t="s">
+        <v>303</v>
+      </c>
+      <c r="M17" t="s">
+        <v>304</v>
+      </c>
+      <c r="N17" t="s">
+        <v>305</v>
+      </c>
+      <c r="O17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>306</v>
+      </c>
+      <c r="R17" t="s">
+        <v>304</v>
+      </c>
+      <c r="S17" t="s">
+        <v>307</v>
+      </c>
+      <c r="T17" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3174,10 +3740,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3354,10 +3920,120 @@
       <c r="A6" t="s">
         <v>214</v>
       </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" t="s">
+        <v>216</v>
+      </c>
+      <c r="O6" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>215</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I7" t="s">
+        <v>260</v>
+      </c>
+      <c r="J7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" t="s">
+        <v>217</v>
+      </c>
+      <c r="O7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" t="s">
+        <v>326</v>
+      </c>
+      <c r="I8" t="s">
+        <v>327</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>328</v>
+      </c>
+      <c r="M8" t="s">
+        <v>280</v>
+      </c>
+      <c r="N8" t="s">
+        <v>225</v>
+      </c>
+      <c r="O8" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/lab26/ФИСТ2024_ЛР26_Время_работы_разных_реализаций_Словаря.xlsx
+++ b/lab26/ФИСТ2024_ЛР26_Время_работы_разных_реализаций_Словаря.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="СВОДНАЯ" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Хэш 2" sheetId="14" r:id="rId8"/>
     <sheet name="Хэш 3" sheetId="15" r:id="rId9"/>
     <sheet name="Хэш 4" sheetId="16" r:id="rId10"/>
+    <sheet name="Хэш открытая адресация" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="381">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -856,60 +857,30 @@
     <t>при использовании разных хешей нет особой разницы во времени: следовательно упор во что то другое (озу или запись на диск)</t>
   </si>
   <si>
-    <t>0.279</t>
-  </si>
-  <si>
     <t>0.291</t>
   </si>
   <si>
     <t>1.463</t>
   </si>
   <si>
+    <t>1.467</t>
+  </si>
+  <si>
     <t>1.246</t>
   </si>
   <si>
-    <t>0.300</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
     <t>1.370</t>
   </si>
   <si>
-    <t>1.310</t>
-  </si>
-  <si>
-    <t>1.564</t>
-  </si>
-  <si>
-    <t>1.319</t>
-  </si>
-  <si>
-    <t>1.524</t>
-  </si>
-  <si>
     <t>1.563</t>
   </si>
   <si>
-    <t>1.299</t>
-  </si>
-  <si>
     <t>1.475</t>
   </si>
   <si>
     <t>1.539</t>
   </si>
   <si>
-    <t>1.565</t>
-  </si>
-  <si>
-    <t>1.302</t>
-  </si>
-  <si>
-    <t>1.537</t>
-  </si>
-  <si>
     <t>0.232</t>
   </si>
   <si>
@@ -1010,6 +981,192 @@
   </si>
   <si>
     <t>1.226</t>
+  </si>
+  <si>
+    <t>0.237</t>
+  </si>
+  <si>
+    <t>0.274</t>
+  </si>
+  <si>
+    <t>1.189</t>
+  </si>
+  <si>
+    <t>1.211</t>
+  </si>
+  <si>
+    <t>1.371</t>
+  </si>
+  <si>
+    <t>1.431</t>
+  </si>
+  <si>
+    <t>1.188</t>
+  </si>
+  <si>
+    <t>1.437</t>
+  </si>
+  <si>
+    <t>dict4.txt</t>
+  </si>
+  <si>
+    <t>dict4a.txt</t>
+  </si>
+  <si>
+    <t>dict4b.txt</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
+    <t>0.313</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.323</t>
+  </si>
+  <si>
+    <t>0.284</t>
+  </si>
+  <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>2.822</t>
+  </si>
+  <si>
+    <t>0.314</t>
+  </si>
+  <si>
+    <t>1.514</t>
+  </si>
+  <si>
+    <t>1.404</t>
+  </si>
+  <si>
+    <t>1.422</t>
+  </si>
+  <si>
+    <t>1.578</t>
+  </si>
+  <si>
+    <t>1.618</t>
+  </si>
+  <si>
+    <t>1.625</t>
+  </si>
+  <si>
+    <t>1.401</t>
+  </si>
+  <si>
+    <t>1.423</t>
+  </si>
+  <si>
+    <t>1.568</t>
+  </si>
+  <si>
+    <t>1.628</t>
+  </si>
+  <si>
+    <t>14.207</t>
+  </si>
+  <si>
+    <t>1.400</t>
+  </si>
+  <si>
+    <t>1.425</t>
+  </si>
+  <si>
+    <t>1.586</t>
+  </si>
+  <si>
+    <t>7.585</t>
+  </si>
+  <si>
+    <t>0.298</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>1.228</t>
+  </si>
+  <si>
+    <t>1.255</t>
+  </si>
+  <si>
+    <t>1.486</t>
+  </si>
+  <si>
+    <t>1.415</t>
+  </si>
+  <si>
+    <t>1.240</t>
+  </si>
+  <si>
+    <t>1.251</t>
+  </si>
+  <si>
+    <t>1.413</t>
+  </si>
+  <si>
+    <t>1.469</t>
+  </si>
+  <si>
+    <t>0.428</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>2.941</t>
+  </si>
+  <si>
+    <t>1.555</t>
+  </si>
+  <si>
+    <t>1.369</t>
+  </si>
+  <si>
+    <t>1.426</t>
+  </si>
+  <si>
+    <t>1.374</t>
+  </si>
+  <si>
+    <t>14.680</t>
+  </si>
+  <si>
+    <t>1.429</t>
+  </si>
+  <si>
+    <t>7.791</t>
+  </si>
+  <si>
+    <t>1.408</t>
+  </si>
+  <si>
+    <t>1.488</t>
+  </si>
+  <si>
+    <t>1.493</t>
+  </si>
+  <si>
+    <t>1.492</t>
+  </si>
+  <si>
+    <t>1.480</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1087,6 +1244,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1547,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1559,7 +1719,7 @@
     <col min="2" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="24.45" customHeight="1">
+    <row r="1" spans="1:18" ht="24.45" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1641,7 +1801,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1682,7 +1842,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1723,163 +1883,154 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
       </c>
       <c r="D6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" t="s">
         <v>142</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>216</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
         <v>216</v>
       </c>
-      <c r="H6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>142</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
+        <v>216</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s">
         <v>142</v>
       </c>
-      <c r="L6" t="s">
+      <c r="Q6" t="s">
         <v>142</v>
       </c>
-      <c r="M6" t="s">
-        <v>90</v>
-      </c>
-      <c r="N6" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>216</v>
       </c>
-      <c r="R6" t="s">
-        <v>88</v>
-      </c>
-      <c r="S6" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G7" t="s">
-        <v>281</v>
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>201</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="I7" t="s">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>154</v>
+      </c>
+      <c r="K7" t="s">
+        <v>356</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" t="s">
+        <v>357</v>
+      </c>
+      <c r="N7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O7" t="s">
         <v>95</v>
       </c>
-      <c r="N7" t="s">
-        <v>260</v>
-      </c>
-      <c r="O7" t="s">
-        <v>96</v>
+      <c r="P7" t="s">
+        <v>217</v>
       </c>
       <c r="Q7" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="R7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S7" t="s">
-        <v>277</v>
-      </c>
-      <c r="T7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="B8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" t="s">
         <v>283</v>
       </c>
-      <c r="C8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" t="s">
-        <v>285</v>
+      <c r="F8" t="s">
+        <v>360</v>
       </c>
       <c r="H8" t="s">
-        <v>286</v>
+        <v>358</v>
       </c>
       <c r="I8" t="s">
-        <v>212</v>
+        <v>316</v>
       </c>
       <c r="J8" t="s">
-        <v>287</v>
+        <v>361</v>
+      </c>
+      <c r="K8" t="s">
+        <v>279</v>
       </c>
       <c r="L8" t="s">
-        <v>288</v>
-      </c>
-      <c r="M8" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="N8" t="s">
-        <v>290</v>
+        <v>362</v>
       </c>
       <c r="O8" t="s">
-        <v>291</v>
+        <v>363</v>
+      </c>
+      <c r="P8" t="s">
+        <v>364</v>
       </c>
       <c r="Q8" t="s">
-        <v>292</v>
+        <v>365</v>
       </c>
       <c r="R8" t="s">
-        <v>293</v>
-      </c>
-      <c r="S8" t="s">
-        <v>107</v>
-      </c>
-      <c r="T8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="B10" t="s">
         <v>139</v>
       </c>
@@ -1890,7 +2041,7 @@
         <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G10" t="s">
         <v>59</v>
@@ -1917,80 +2068,694 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:18">
       <c r="B11" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D11" t="s">
         <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G11" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="H11" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="I11" t="s">
         <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L11" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="M11" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N11" t="s">
         <v>149</v>
       </c>
       <c r="O11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C12" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G12" t="s">
+        <v>281</v>
+      </c>
+      <c r="H12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I12" t="s">
+        <v>308</v>
+      </c>
+      <c r="J12" t="s">
+        <v>309</v>
+      </c>
+      <c r="L12" t="s">
+        <v>310</v>
+      </c>
+      <c r="M12" t="s">
+        <v>311</v>
+      </c>
+      <c r="N12" t="s">
+        <v>282</v>
+      </c>
+      <c r="O12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>170</v>
+      </c>
+      <c r="M14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="B15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G15" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" t="s">
+        <v>320</v>
+      </c>
+      <c r="J15" t="s">
+        <v>217</v>
+      </c>
+      <c r="L15" t="s">
+        <v>319</v>
+      </c>
+      <c r="M15" t="s">
+        <v>193</v>
+      </c>
+      <c r="N15" t="s">
+        <v>302</v>
+      </c>
+      <c r="O15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" t="s">
+        <v>289</v>
+      </c>
+      <c r="H16" t="s">
+        <v>322</v>
+      </c>
+      <c r="I16" t="s">
+        <v>323</v>
+      </c>
+      <c r="J16" t="s">
+        <v>324</v>
+      </c>
+      <c r="L16" t="s">
+        <v>325</v>
+      </c>
+      <c r="M16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" t="s">
+        <v>323</v>
+      </c>
+      <c r="O16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>142</v>
+      </c>
+      <c r="L18" t="s">
+        <v>216</v>
+      </c>
+      <c r="N18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>142</v>
+      </c>
+      <c r="R18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" t="s">
+        <v>260</v>
+      </c>
+      <c r="K19" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" t="s">
+        <v>198</v>
+      </c>
+      <c r="N19" t="s">
+        <v>121</v>
+      </c>
+      <c r="O19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>376</v>
+      </c>
+      <c r="E20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F20" t="s">
+        <v>378</v>
+      </c>
+      <c r="H20" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" t="s">
         <v>316</v>
       </c>
-      <c r="G12" t="s">
-        <v>283</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="J20" t="s">
         <v>317</v>
       </c>
-      <c r="I12" t="s">
-        <v>318</v>
-      </c>
-      <c r="J12" t="s">
-        <v>319</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="K20" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" t="s">
+        <v>379</v>
+      </c>
+      <c r="N20" t="s">
+        <v>135</v>
+      </c>
+      <c r="O20" t="s">
+        <v>280</v>
+      </c>
+      <c r="P20" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>222</v>
+      </c>
+      <c r="R20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="24.6" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" t="s">
+        <v>366</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>145</v>
+      </c>
+      <c r="R7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" t="s">
+        <v>336</v>
+      </c>
+      <c r="H8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" t="s">
+        <v>217</v>
+      </c>
+      <c r="L8" t="s">
+        <v>368</v>
+      </c>
+      <c r="N8" t="s">
+        <v>172</v>
+      </c>
+      <c r="O8" t="s">
+        <v>197</v>
+      </c>
+      <c r="P8" t="s">
         <v>320</v>
       </c>
-      <c r="M12" t="s">
-        <v>321</v>
-      </c>
-      <c r="N12" t="s">
-        <v>288</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="Q8" t="s">
+        <v>217</v>
+      </c>
+      <c r="R8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9" t="s">
+        <v>290</v>
+      </c>
+      <c r="J9" t="s">
+        <v>372</v>
+      </c>
+      <c r="K9" t="s">
+        <v>324</v>
+      </c>
+      <c r="L9" t="s">
+        <v>373</v>
+      </c>
+      <c r="N9" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" t="s">
         <v>322</v>
+      </c>
+      <c r="P9" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>374</v>
+      </c>
+      <c r="R9" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -2767,10 +3532,10 @@
     </row>
     <row r="16" spans="1:20">
       <c r="B16" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D16" t="s">
         <v>172</v>
@@ -2794,7 +3559,7 @@
         <v>197</v>
       </c>
       <c r="M16" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="N16" t="s">
         <v>172</v>
@@ -2806,7 +3571,7 @@
         <v>67</v>
       </c>
       <c r="R16" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="S16" t="s">
         <v>178</v>
@@ -2817,52 +3582,52 @@
     </row>
     <row r="17" spans="2:20">
       <c r="B17" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D17" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E17" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G17" t="s">
         <v>234</v>
       </c>
       <c r="H17" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="I17" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="J17" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="L17" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="M17" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="N17" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="O17" t="s">
         <v>84</v>
       </c>
       <c r="Q17" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="R17" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="S17" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="T17" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3742,7 +4507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -4006,25 +4771,25 @@
         <v>280</v>
       </c>
       <c r="D8" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G8" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H8" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="I8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="J8" t="s">
         <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="M8" t="s">
         <v>280</v>
@@ -4033,7 +4798,7 @@
         <v>225</v>
       </c>
       <c r="O8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/lab26/ФИСТ2024_ЛР26_Время_работы_разных_реализаций_Словаря.xlsx
+++ b/lab26/ФИСТ2024_ЛР26_Время_работы_разных_реализаций_Словаря.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="423">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1167,6 +1167,132 @@
   </si>
   <si>
     <t>1.480</t>
+  </si>
+  <si>
+    <t>x86</t>
+  </si>
+  <si>
+    <t>x64</t>
+  </si>
+  <si>
+    <t>0.283</t>
+  </si>
+  <si>
+    <t>0.233</t>
+  </si>
+  <si>
+    <t>1.176</t>
+  </si>
+  <si>
+    <t>1.187</t>
+  </si>
+  <si>
+    <t>1.362</t>
+  </si>
+  <si>
+    <t>1.411</t>
+  </si>
+  <si>
+    <t>1.424</t>
+  </si>
+  <si>
+    <t>1.348</t>
+  </si>
+  <si>
+    <t>1.406</t>
+  </si>
+  <si>
+    <t>1.361</t>
+  </si>
+  <si>
+    <t>1.417</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>0.091</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>0.092</t>
+  </si>
+  <si>
+    <t>0.518</t>
+  </si>
+  <si>
+    <t>0.530</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>0.528</t>
+  </si>
+  <si>
+    <t>0.642</t>
+  </si>
+  <si>
+    <t>0.519</t>
+  </si>
+  <si>
+    <t>0.529</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>2.593</t>
+  </si>
+  <si>
+    <t>2.644</t>
+  </si>
+  <si>
+    <t>3.061</t>
+  </si>
+  <si>
+    <t>3.213</t>
+  </si>
+  <si>
+    <t>3.228</t>
+  </si>
+  <si>
+    <t>2.590</t>
+  </si>
+  <si>
+    <t>2.642</t>
+  </si>
+  <si>
+    <t>3.207</t>
+  </si>
+  <si>
+    <t>3.216</t>
+  </si>
+  <si>
+    <t>2.643</t>
+  </si>
+  <si>
+    <t>3.057</t>
+  </si>
+  <si>
+    <t>3.211</t>
+  </si>
+  <si>
+    <t>3.223</t>
   </si>
 </sst>
 </file>
@@ -1707,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2258,7 +2384,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="1:18">
       <c r="B18" t="s">
         <v>58</v>
       </c>
@@ -2305,7 +2431,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="1:18">
       <c r="B19" t="s">
         <v>218</v>
       </c>
@@ -2352,7 +2478,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="1:18">
       <c r="B20" t="s">
         <v>358</v>
       </c>
@@ -2397,6 +2523,294 @@
       </c>
       <c r="R20" t="s">
         <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" t="s">
+        <v>142</v>
+      </c>
+      <c r="J30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" t="s">
+        <v>145</v>
+      </c>
+      <c r="L30" t="s">
+        <v>170</v>
+      </c>
+      <c r="M30" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" t="s">
+        <v>139</v>
+      </c>
+      <c r="O30" t="s">
+        <v>139</v>
+      </c>
+      <c r="P30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="B31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" t="s">
+        <v>299</v>
+      </c>
+      <c r="E31" t="s">
+        <v>383</v>
+      </c>
+      <c r="F31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" t="s">
+        <v>384</v>
+      </c>
+      <c r="H31" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" t="s">
+        <v>173</v>
+      </c>
+      <c r="J31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L31" t="s">
+        <v>384</v>
+      </c>
+      <c r="M31" t="s">
+        <v>178</v>
+      </c>
+      <c r="N31" t="s">
+        <v>173</v>
+      </c>
+      <c r="O31" t="s">
+        <v>174</v>
+      </c>
+      <c r="P31" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="B32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C32" t="s">
+        <v>386</v>
+      </c>
+      <c r="D32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E32" t="s">
+        <v>388</v>
+      </c>
+      <c r="F32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G32" t="s">
+        <v>294</v>
+      </c>
+      <c r="H32" t="s">
+        <v>325</v>
+      </c>
+      <c r="I32" t="s">
+        <v>390</v>
+      </c>
+      <c r="J32" t="s">
+        <v>391</v>
+      </c>
+      <c r="K32" t="s">
+        <v>361</v>
+      </c>
+      <c r="L32" t="s">
+        <v>294</v>
+      </c>
+      <c r="M32" t="s">
+        <v>386</v>
+      </c>
+      <c r="N32" t="s">
+        <v>392</v>
+      </c>
+      <c r="O32" t="s">
+        <v>188</v>
+      </c>
+      <c r="P32" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>381</v>
+      </c>
+      <c r="B35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>395</v>
+      </c>
+      <c r="E35" t="s">
+        <v>396</v>
+      </c>
+      <c r="F35" t="s">
+        <v>395</v>
+      </c>
+      <c r="G35" t="s">
+        <v>397</v>
+      </c>
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" t="s">
+        <v>398</v>
+      </c>
+      <c r="J35" t="s">
+        <v>396</v>
+      </c>
+      <c r="K35" t="s">
+        <v>395</v>
+      </c>
+      <c r="L35" t="s">
+        <v>397</v>
+      </c>
+      <c r="M35" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" t="s">
+        <v>395</v>
+      </c>
+      <c r="O35" t="s">
+        <v>396</v>
+      </c>
+      <c r="P35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="B36" t="s">
+        <v>399</v>
+      </c>
+      <c r="C36" t="s">
+        <v>400</v>
+      </c>
+      <c r="D36" t="s">
+        <v>401</v>
+      </c>
+      <c r="E36" t="s">
+        <v>402</v>
+      </c>
+      <c r="F36" t="s">
+        <v>403</v>
+      </c>
+      <c r="G36" t="s">
+        <v>404</v>
+      </c>
+      <c r="H36" t="s">
+        <v>405</v>
+      </c>
+      <c r="I36" t="s">
+        <v>401</v>
+      </c>
+      <c r="J36" t="s">
+        <v>406</v>
+      </c>
+      <c r="K36" t="s">
+        <v>402</v>
+      </c>
+      <c r="L36" t="s">
+        <v>407</v>
+      </c>
+      <c r="M36" t="s">
+        <v>408</v>
+      </c>
+      <c r="N36" t="s">
+        <v>409</v>
+      </c>
+      <c r="O36" t="s">
+        <v>406</v>
+      </c>
+      <c r="P36" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="B37" t="s">
+        <v>410</v>
+      </c>
+      <c r="C37" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" t="s">
+        <v>412</v>
+      </c>
+      <c r="E37" t="s">
+        <v>413</v>
+      </c>
+      <c r="F37" t="s">
+        <v>414</v>
+      </c>
+      <c r="G37" t="s">
+        <v>415</v>
+      </c>
+      <c r="H37" t="s">
+        <v>416</v>
+      </c>
+      <c r="I37" t="s">
+        <v>412</v>
+      </c>
+      <c r="J37" t="s">
+        <v>417</v>
+      </c>
+      <c r="K37" t="s">
+        <v>418</v>
+      </c>
+      <c r="L37" t="s">
+        <v>415</v>
+      </c>
+      <c r="M37" t="s">
+        <v>419</v>
+      </c>
+      <c r="N37" t="s">
+        <v>420</v>
+      </c>
+      <c r="O37" t="s">
+        <v>421</v>
+      </c>
+      <c r="P37" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
